--- a/Hakutulokset.xlsx
+++ b/Hakutulokset.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,1726 +454,2074 @@
           <t>Linkki</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Julkaistu</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Kategoria</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Osuvuus</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tuotesuunnittelija</t>
+          <t>Myyjä - Valokuitunen Oy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Artekno Oy</t>
+          <t xml:space="preserve">Rainmaker SalesHow Oy </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kangasala</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/artekno-tuotesuunnittelija-sdsuu-14381067</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>44594</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11698209?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kehitysinsinööri ohjelmistokehitykseen</t>
+          <t>Myyjä kodinturvapalveluihin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AGCO Power Oy</t>
+          <t xml:space="preserve">Sector Alarm Oy </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/agco-power-kehitysinsinoori-ohjelmistokehitykseen-sdsuu-14380332</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>44594</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11698356?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Customer Operations Engineer</t>
+          <t>Myyjä, ammattilaisurheilun yritysmyynti</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t xml:space="preserve">Eezy Oyj </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/customer-operations-engineer-snsok-14380046</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>44594</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11700068?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Testausinsinööri/Verification Engineer</t>
+          <t>Edustaja, viemärisaneeraukset</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Merus Power Oyj</t>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t xml:space="preserve"> Pirkanmaa, Renoa Group</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/testausinsinooriverification-engineer-stse-14380763</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>44594</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11699732?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ympäristöinsinööri / Elintarvikevalvonta</t>
+          <t>Kokoaikainen Myyjä Lielahteen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tampereen kaupunki</t>
+          <t xml:space="preserve">Puuilo Tavaratalot Oy </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/ymparistoinsinoori-elintarvikevalvonta-stse-14380764</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>44594</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11699888?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cloud Operation Engineer</t>
+          <t>Myyntiedustaja</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Digia</t>
+          <t xml:space="preserve">Power of Sun Oy </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Helsinki ja 2 muuta</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/cloud-operation-engineer-sdsig-14379143</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11699783?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UPM Graduate Programme</t>
+          <t>Asiakaspalvelijoita joulusesonkiin pakettien nouto</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UPM</t>
+          <t xml:space="preserve">Bolt.Works Oy </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Helsinki ja 6 muuta</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/upm-kymmene-upm-graduate-programme-sdsuu-14376027</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>opiskelijoiden työpaikat</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11699873?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Huoltoinsinööri</t>
+          <t>Myyjä urheiluliikkeeseen Tampereen keskustaan!</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Avant Tecno Oy</t>
+          <t xml:space="preserve">Täyttö Oy </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ylöjärvi</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/avant-tecno-huoltoinsinoori-sdsuu-14375504</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11696386?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Laatuinsinööri - Gardner Denver Oy</t>
+          <t>Myyjä urheiluliikkeeseen Lielahteen!</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suomen Henkilöstötalo</t>
+          <t xml:space="preserve">Täyttö Oy </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/laatuinsinoori-gardner-denver-oy-sssuo-14375240</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11696389?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Liiketoiminta-analyytikko, Wood Fuels</t>
+          <t>Grillimyyjä Tampereelle</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Neova Oy</t>
+          <t xml:space="preserve">Amiko Tampere Oy </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vantaa ja 2 muuta</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/neova-oy-liiketoiminta-analyytikko-wood-fuels-sdsuu-14357254</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>44589</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11696055?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Suunnittelija / Lasinen lapsuus</t>
+          <t>Myyjä</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A-klinikkasäätiö</t>
+          <t xml:space="preserve">OY Ur &amp; Penn Finland AB </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t xml:space="preserve"> Kauppakeskus Ratina, Tampere</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/a-klinikkasaatio-suunnittelija-lasinen-lapsuus-sdsuu-14381163</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>44594</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>julkinen sektori ja järjestöt</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11697285?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Development Engineer</t>
+          <t>Myyntipromoottori</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nokian Renkaat Oyj</t>
+          <t xml:space="preserve">ProTrail Oy </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t xml:space="preserve"> Promoottori/ Tuote-esittelijä/ Konsulentti, Jyväskylä, Rovaniemi, Pietarsaari</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/nokian-renkaat-development-engineer-sdsuu-14368931</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11698572?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Automaatio-osaaja, Lapinlahti</t>
+          <t>Helsingin Sanomat Myyntiedustajia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valio Oy</t>
+          <t xml:space="preserve">Nordic Sales Crew Oy </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lapinlahti ja 2 muuta</t>
+          <t xml:space="preserve"> Pääkaupunkiseutu, Turku, Oulu, Tampere</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/valio-automaatio-osaaja-lapinlahti-sdsuu-14367997</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11696833?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Head of New Medicine Product Development</t>
+          <t>Yrittäjähenkisiä myyntiedustajia Sanoma-projektiin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Orion Oyj</t>
+          <t xml:space="preserve">Nordic Sales Crew Oy </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Espoo</t>
+          <t xml:space="preserve"> Helsinki, Turku, Oulu, Tampere</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/orion-head-of-new-medicine-product-development-sdsuu-14374637</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11696922?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Valmistuspäällikkö</t>
+          <t>Myyjä</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Artekno Oy</t>
+          <t xml:space="preserve">New Yorker Finland Oy </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pälkäne</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/artekno-valmistuspaallikko-sdsuu-14357843</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>44589</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11696309?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(Imaging) Software Engineer</t>
+          <t>Myyjä</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AAC Technologies Oy</t>
+          <t xml:space="preserve">Dressmann Oy Ab </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/aac-technologies-imaging-software-engineer-sdsuu-14374829</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11697458?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Erikoisasiantuntija</t>
+          <t>Ratkaisumyyjä yritysmyyntitiimiin/etämahdollisuus</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Istekki Oy</t>
+          <t xml:space="preserve">LEAD Henkilöstöratkaisut Oy </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jyväskylä ja 4 muuta</t>
+          <t xml:space="preserve"> Elisa Oyj, Ratkaisumyyjä yritysmyyntitiimiin, Myyntineuvottelija, Asiakaspalvelu</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/erikoisasiantuntija-sksun-14381511</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>asiantuntijatyöt ja konsultointi</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11694397?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Palvelupisteasiantuntija</t>
+          <t>Ruokatorin tiimivastaavan kakkonen, Prisma Linnai</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Istekki Oy</t>
+          <t xml:space="preserve">Pirkanmaan Osuuskauppa </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tampere ja 1 muu</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/palvelupisteasiantuntija-sksun-14381423</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>asiantuntijatyöt ja konsultointi</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11694513?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Projekti-insinööri</t>
+          <t>Yritysmyyjä</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Enersense</t>
+          <t xml:space="preserve">Barona Oy </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pirkkala</t>
+          <t xml:space="preserve"> Barona Sales Oy</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/projekti-insinoori-sesne-14376240</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11695080?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nuorempia mekaniikkasuunnittelijoita</t>
+          <t>Muu myyjä</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ALTEN Finland</t>
+          <t xml:space="preserve">Academic Work Consulting Oy </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/nuorempia-mekaniikkasuunnittelijoita-stse-14378497</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11695384?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Project Engineer</t>
+          <t>Kokoaikainen Myyjä Tampereen Turtolaan</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nokian Renkaat Oyj</t>
+          <t xml:space="preserve">Puuilo Tavaratalot Oy </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/project-engineer-stse-14378500</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11693918?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Palvelupisteasiantuntija</t>
+          <t>Keittiömyyjä</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Istekki Oy</t>
+          <t xml:space="preserve">IKEA Oy. </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> IKEA Tampere</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/palvelupisteasiantuntija-stse-14378679</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>asiantuntijatyöt ja konsultointi</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11693165?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Projektipäällikkö, taitorakentaminen, joustava sijainti</t>
+          <t>Myyjä</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NRC Group</t>
+          <t xml:space="preserve">Jaro Salkoharju </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kouvola ja 2 muuta</t>
+          <t xml:space="preserve"> K-Supermarket Hämeenkatu</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/projektipaallikko-taitorakentaminen-joustava-sijainti-snsrc-14376273</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>asiantuntijatyöt ja konsultointi</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11694094?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tuotannon kehitysinsinööri - Gardner Denver</t>
+          <t>Palvelutiskimyyjä, Pirkanmaa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Suomen Henkilöstötalo</t>
+          <t xml:space="preserve">Joblink Oy </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/tuotannon-kehitysinsinoori-gardner-denver-sssuo-14368901</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11694019?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IV-projektipäällikkö/-hoitaja</t>
+          <t>Team Leader Trainee, Tampere</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bravida Finland Oy</t>
+          <t xml:space="preserve">Verisure Oy </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/bravida-finland-iv-projektipaallikko-hoitaja-sdsuu-14368769</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>asennus, huolto ja kunnossapito</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11695407?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Varastotyöntekijä Grundium Oy:lle</t>
+          <t>Myyntiedustaja</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bolt.Works</t>
+          <t xml:space="preserve">Worker Finland Oy </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/varastotyontekija-grundium-oylle-sbsol-14368516</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11693377?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Koelentoinsinööri (erikoisupseeri)</t>
+          <t>Urheiluvälinemyyjä, Intersport Tampere</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Puolustusvoimat</t>
+          <t xml:space="preserve">Bolt.Works Oy </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pirkkala</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/koelentoinsinoori-erikoisupseeri-svsal-14368241</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11691592?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Development Engineer</t>
+          <t>Kassa-myyjiä Ylöjärvi Elovainio</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nokian Renkaat Oyj</t>
+          <t xml:space="preserve">Tokmanni. </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t xml:space="preserve"> Ylöjärvi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/development-engineer-stse-14369344</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11691772?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Engineering Specialist (Material engineering and s</t>
+          <t>Myyjiä keikkatyöhön, Minimani Lielahti</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AGCO Power Oy</t>
+          <t xml:space="preserve">StaffPoint Oy </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/engineering-specialist-material-engineering-and-s-stse-14369346</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11692042?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Software Test Engineer</t>
+          <t>Kassa-myyjiä jouluavuksi Ylöjärvi Elovainio</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Teleste Oyj</t>
+          <t xml:space="preserve">Tokmanni. </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Ylöjärvi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/software-test-engineer-stse-14369367</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11691839?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tekninen piirtäjä</t>
+          <t>Kassa/myyjä</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HeadCount Oy</t>
+          <t xml:space="preserve">Henkilöstöratkaisu Extraajat Oy </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/tekninen-piirtaja-stse-14369482</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11687117?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bioanalyytikko, terveydenhuolto</t>
+          <t>Myyjä</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fimlab Laboratoriot Oy</t>
+          <t xml:space="preserve">Lidl Suomi Ky </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Valkeakoski</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/bioanalyytikko-terveydenhuolto-stse-14369506</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>erikoisalat (terveydenhuolto)</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11688091?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kiinnostaako Projekti-insinöörin tehtävät energia-alalla?</t>
+          <t>Media myyjä / tuotepäällikkö</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Carelin Oy</t>
+          <t xml:space="preserve">Media Potentia Oy </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Oulu ja 1 muu</t>
+          <t xml:space="preserve"> Media Potentia Oy</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/kiinnostaako-projekti-insinoorin-tehtavat-energia-alalla-sdsuu-14359107</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>44589</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11688987?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Start-up Engineer, Commissioning</t>
+          <t>Myyjä</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Valmet</t>
+          <t xml:space="preserve">LiveRing Oy </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Myyjiä Pelastakaa Lapset -tiimiin</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/start-up-engineer-commissioning-svsal-14354753</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>44589</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11688625?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2D Graphics Rendering Engineer</t>
+          <t>Palvelumyyjä, ELISA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Huawei Technologies Oy (Finland)</t>
+          <t xml:space="preserve">Enia Oy </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/2d-graphics-rendering-engineer-scsom-14369263</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>44589</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11689375?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mechanical Engineers (mobile machines)</t>
+          <t>Asiakashankkija Freshin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Etteplan Finland Oy</t>
+          <t xml:space="preserve">Freshin Oy </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Uusimaa</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/mechanical-engineers-mobile-machines-stse-14359137</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>44589</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11688957?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Test Engineer</t>
+          <t>Myyjä Telian asiakkuuksien hoitoon, Tampere</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sasken Finland Oy</t>
+          <t xml:space="preserve">StaffPoint Oy </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/sasken-finland-test-engineer-sdsuu-14351712</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>44588</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11687577?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Senior Mechanical Designer</t>
+          <t>Myyjä - Renoagroup, Tampere</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Talent Center Oy</t>
+          <t xml:space="preserve">Rainmaker SalesHow Oy </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/senior-mechanical-designer-stsal-14320891</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>44588</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11687092?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Projekti- tai suunnittelupäällikkö</t>
+          <t>Kosmetiikka -ja terveystuotemyyjä</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A-Insinöörit Oy</t>
+          <t xml:space="preserve">KF-Myynti Oy </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> KF-Myynti oy</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/projekti-tai-suunnittelupaallikko-stse-14352182</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>44588</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11685611?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Työkoneiden testaaja</t>
+          <t>Myyjä</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Insinööritoimisto Comatec Oy</t>
+          <t xml:space="preserve">Palkkaa Minut Suomi Oy </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Lahti</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/tyokoneiden-testaaja-stse-14352195</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>44588</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11685251?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tekninen tarkastaja</t>
+          <t>Muu myyjä / Varainhankkija</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VTS-kodit / MPS-Yhtiöt Oy</t>
+          <t xml:space="preserve">Lääkärit Ilman Rajoja ry </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/tekninen-tarkastaja-stse-14352614</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>44588</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>tuntematon toimiala</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11686153?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Engineer, AI/ML</t>
+          <t>Asiakaspalvelijoita/kiireapulainen sesonkiin</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MN Mobile Networks</t>
+          <t xml:space="preserve">Poikain Parhaat Oy Ltd </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/engineer-aiml-scsom-14345609</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>44587</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11686590?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Engineer, AI/ML</t>
+          <t>Myyjä, Tampere</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nokia</t>
+          <t xml:space="preserve">Tähtiremontit Oy </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Tampere</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/engineer-aiml-snsok-14343516</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>44587</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11685489?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sales Engineer, Elematic Oyj</t>
+          <t>Asiakasneuvottelija / Ajanvaraaja</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Academic Work</t>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Renoa Group, Suosittu työ ajanvarauksen parissa, lähetä vain yhteystiedot</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/sales-engineer-elematic-oyj-sasca-14135448</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>44587</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11683970?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tuotekehitysinsinööri, Mekatroniikka</t>
+          <t>Ajanvaraaja</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Katsa Oy</t>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Pirkanmaa, JR-Kodit, Kokoaikatyö kasvavassa yrityksessä</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/tuotekehitysinsinoori-mekatroniikka-stse-14344906</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>44587</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11683927?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Embedded SW Engineer / Senior SW Engineer</t>
+          <t>Aluemyyjä</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bittium Wireless Oy</t>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Pirkanmaa, JR-Kodit, Kodin sähkö ja energiansäästöratkaisut</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/embedded-sw-engineer-senior-sw-engineer-stse-14344908</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>44587</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11683955?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HW Engineer / Senior HW Engineer</t>
+          <t>Edustaja, sähkösaneeraukset</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bittium Wireless Oy</t>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Pirkanmaa, Renoa Group</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/hw-engineer-senior-hw-engineer-stse-14344909</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>44587</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11684212?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SW Test Engineer</t>
+          <t>Floristi / kukkakaupan myyjä joulusesonkiin</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bittium Wireless Oy</t>
+          <t xml:space="preserve">Barona Oy </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Barona Kauppa Oy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/sw-test-engineer-stse-14344911</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>44587</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11684380?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Tekninen tarkastaja</t>
+          <t>Myyntiedustaja, sähkösopimukset</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tampereen Vuokratalosäätiö</t>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Vattenfall</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/tampereen-vuokratalosaatio-tekninen-tarkastaja-sdsuu-14338800</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>tuntematon toimiala</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11684349?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Product Support Engineer</t>
+          <t>Myyntiedustaja, vakuutukset</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> AIG, Toteemi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/product-support-engineer-scsar-14337354</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11684358?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sales Specifier Engineer</t>
+          <t>Buukkari</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Schneider Electric Finland Oy</t>
+          <t xml:space="preserve">VK Liikuntapalvelut Oy </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Espoo ja 1 muu</t>
+          <t xml:space="preserve"> Jyväskylä</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/schneider-electric-finland-specifier-sales-engineer-sdsuu-14336726</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11684304?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Senior Algorithm Engineer</t>
+          <t>Palvelulinjastomyyjä keikkatöihin Pirkkalaan</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Grundium Oy</t>
+          <t xml:space="preserve">Barona Oy </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Barona Kauppa Oy</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/senior-algorithm-engineer-sdsuu-14336725</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11683433?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Embedded Software Engineer</t>
+          <t>Etämyyjä Kotikonttorille</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Grundium Oy</t>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Kotikonttori</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/embedded-software-engineer-sdsuu-14336722</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11683562?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Manufacturing Software Engineer</t>
+          <t>Aluemyyntiedustaja, valokuitu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Grundium Oy</t>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t xml:space="preserve"> Uusimaa, Nordic Sales Crew /  OneFiber</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/manufacturing-software-engineer-sdsuu-14336721</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>teollisuus ja teknologia</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11683694?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Biologi/Linnustoasiantuntija</t>
+          <t>Myyjä - Stadium Outlet Tampere</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FCG Finnish Consulting Group Oy</t>
+          <t xml:space="preserve">Stadium Oy </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Helsinki ja 9 muuta</t>
+          <t xml:space="preserve"> 30-37,5 h/vko</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>duunitori.fi/tyopaikat/tyo/biologilinnustoasiantuntija-sksun-14344649</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>tieteellinen ala: luonnontiede, ihmistieteet, formaalit tieteenalat</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>https://paikat.te-palvelut.fi/tpt/11682452?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Edustaja, ilmalämpöpumput</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pirkanmaa, Renoa Group</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11681909?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Myyntiagentti, Vattenfall</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vattenfall</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11682088?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Myyntiagentti, AIG</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIG, Toteemi</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11682062?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kauppatyöntekijä (keikka) K-Market Tampere</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolt.Works Oy </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11682033?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Myyjä joulusesonkiin</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henkilöstöliiga Pirkanmaa Oy </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11682017?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MYYJÄ</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henkilöstöpalvelu Hirmu oy </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Uusimaa, Nordic Sales Crew / OneFiber</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11682188?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kahvilatyöntekijä, Tampere, Pirkanmaa</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Staffy Oy </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lempäälä</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11680412?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Myyjä</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homerun Oy </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GANT Store Ideapark</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11679771?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jouluapulaisia, 19.12.2022-1.1.2023</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HR Solutions Finland Oy </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avecra Oy Tampere</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11679661?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Tapahtumaohjaajia, Reaktion Games</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rainmaker SalesHow Oy </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11679233?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Myyjä</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lihanvälitys Laihonen Oy </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tammelantori, Tampere</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11676422?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Elintarvikemyyjä</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lihanvälitys Laihonen Oy </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Papan Sauna Palvi, Tammelantori, Tampere</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11676445?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Pukuvuokraamotyöntekijä / myyjä</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pukuvuokraamo Kavaljeeri Oy </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11677068?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Myyjä</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Specsavers Finland Oy </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11676360?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Kauppatyöntekijä (keikka)  K-Market Pirkanmaa</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolt.Works Oy </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11676070?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nordic Sales Crew - Myyjiä</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nordic Sales Crew Oy </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pääkaupunkiseutu, Turku, Oulu, Tampere, Kuopio, Jyväskylä</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11674910?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Keikkaileva kassamyyjä</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amiko Tampere Oy </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11674212?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Kassamyyjä</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amiko Tampere Oy </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11674214?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Aikakauslehtien myyjä</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AAA-Palvelut Oy </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere 2022 osapäivätyö</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11674241?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Myyntineuvottelija</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AAA-Palvelut Oy </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere, oppisopimus</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11674250?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Palvelutiskimyyjiä Pirkanmaalle</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amiko Tampere Oy </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11674410?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Luontaistuotemyyjä</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AAA-Palvelut Oy </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere 2022 osapäivätyö</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11674190?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Luontaistuotemyyjä</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AAA-Palvelut Oy </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere 2022 kokopäivätyö</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11674184?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Aikakauslehtien myyjä</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AAA-Palvelut Oy </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere 2022 kokopäivätyö</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11674191?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Myyjä / konsulentti</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palvimestarit MM Oy </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11673626?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Joulukuusen myyjä Ylöjärvi / Tampere</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lännen Joulukuusikauppa Oy </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ylöjärvi</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11673660?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Myyjä Tampere Tammela Kyllikinkatu 11</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R-Kioski Oy </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11667504?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Luonnonkosmetiikka myyjä</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suomen Terveysravinto Oy. </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jämsä, Loimaa, Salo, Tampere, Varkaus</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11665451?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Vuodevaate myyjä</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suomen Terveysravinto Oy. </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jyväskylä, Loimaa, Nokia, Salo, Ylöjärvi</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11665467?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Myyntineuvottelija</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teampa Henkilöstöpalvelut Oy </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11662794?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Parturi</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Greasy Fingers Oy </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11654949?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Myyntiedustaja</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frog Group Oy </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pirkanmaa</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11654470?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Myyjä</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mattokeidas Oy </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mattokeidas Oy / Lielahti</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11589595?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ompelija/myyjä</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonglan Oy </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11586786?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Myyjä</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tmi TT Hyytinen </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Neste K Hatanpää</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11558013?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Myyjä / Sales Assistant</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZARA Finland Oy </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11527479?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Promoottori</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palvelutuotanto Prolin Oy </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rovaniemi</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/11209562?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tekninen myyjä</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contos Oy </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HELSINKI</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/10885779?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Kahviasiantuntija</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retail United AB </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampere</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://paikat.te-palvelut.fi/tpt/10784822?searchPhrase=Myyj%C3%A4&amp;locations=Tampere&amp;&amp;announced=0&amp;leasing=0&amp;remotely=0&amp;&amp;&amp;&amp;english=false&amp;sort=8</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
